--- a/data/576/DOS/M451111.xlsx
+++ b/data/576/DOS/M451111.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,875 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>1999 Jan</t>
-  </si>
-  <si>
-    <t>1999 Feb</t>
-  </si>
-  <si>
-    <t>1999 Mar</t>
-  </si>
-  <si>
-    <t>1999 Apr</t>
-  </si>
-  <si>
-    <t>1999 May</t>
-  </si>
-  <si>
-    <t>1999 Jun</t>
-  </si>
-  <si>
-    <t>1999 Jul</t>
-  </si>
-  <si>
-    <t>1999 Aug</t>
-  </si>
-  <si>
-    <t>1999 Sep</t>
-  </si>
-  <si>
-    <t>1999 Oct</t>
-  </si>
-  <si>
-    <t>1999 Nov</t>
-  </si>
-  <si>
-    <t>1999 Dec</t>
-  </si>
-  <si>
-    <t>2000 Jan</t>
-  </si>
-  <si>
-    <t>2000 Feb</t>
-  </si>
-  <si>
-    <t>2000 Mar</t>
-  </si>
-  <si>
-    <t>2000 Apr</t>
-  </si>
-  <si>
-    <t>2000 May</t>
-  </si>
-  <si>
-    <t>2000 Jun</t>
-  </si>
-  <si>
-    <t>2000 Jul</t>
-  </si>
-  <si>
-    <t>2000 Aug</t>
-  </si>
-  <si>
-    <t>2000 Sep</t>
-  </si>
-  <si>
-    <t>2000 Oct</t>
-  </si>
-  <si>
-    <t>2000 Nov</t>
-  </si>
-  <si>
-    <t>2000 Dec</t>
-  </si>
-  <si>
-    <t>2001 Jan</t>
-  </si>
-  <si>
-    <t>2001 Feb</t>
-  </si>
-  <si>
-    <t>2001 Mar</t>
-  </si>
-  <si>
-    <t>2001 Apr</t>
-  </si>
-  <si>
-    <t>2001 May</t>
-  </si>
-  <si>
-    <t>2001 Jun</t>
-  </si>
-  <si>
-    <t>2001 Jul</t>
-  </si>
-  <si>
-    <t>2001 Aug</t>
-  </si>
-  <si>
-    <t>2001 Sep</t>
-  </si>
-  <si>
-    <t>2001 Oct</t>
-  </si>
-  <si>
-    <t>2001 Nov</t>
-  </si>
-  <si>
-    <t>2001 Dec</t>
-  </si>
-  <si>
-    <t>2002 Jan</t>
-  </si>
-  <si>
-    <t>2002 Feb</t>
-  </si>
-  <si>
-    <t>2002 Mar</t>
-  </si>
-  <si>
-    <t>2002 Apr</t>
-  </si>
-  <si>
-    <t>2002 May</t>
-  </si>
-  <si>
-    <t>2002 Jun</t>
-  </si>
-  <si>
-    <t>2002 Jul</t>
-  </si>
-  <si>
-    <t>2002 Aug</t>
-  </si>
-  <si>
-    <t>2002 Sep</t>
-  </si>
-  <si>
-    <t>2002 Oct</t>
-  </si>
-  <si>
-    <t>2002 Nov</t>
-  </si>
-  <si>
-    <t>2002 Dec</t>
-  </si>
-  <si>
-    <t>2003 Jan</t>
-  </si>
-  <si>
-    <t>2003 Feb</t>
-  </si>
-  <si>
-    <t>2003 Mar</t>
-  </si>
-  <si>
-    <t>2003 Apr</t>
-  </si>
-  <si>
-    <t>2003 May</t>
-  </si>
-  <si>
-    <t>2003 Jun</t>
-  </si>
-  <si>
-    <t>2003 Jul</t>
-  </si>
-  <si>
-    <t>2003 Aug</t>
-  </si>
-  <si>
-    <t>2003 Sep</t>
-  </si>
-  <si>
-    <t>2003 Oct</t>
-  </si>
-  <si>
-    <t>2003 Nov</t>
-  </si>
-  <si>
-    <t>2003 Dec</t>
-  </si>
-  <si>
-    <t>2004 Jan</t>
-  </si>
-  <si>
-    <t>2004 Feb</t>
-  </si>
-  <si>
-    <t>2004 Mar</t>
-  </si>
-  <si>
-    <t>2004 Apr</t>
-  </si>
-  <si>
-    <t>2004 May</t>
-  </si>
-  <si>
-    <t>2004 Jun</t>
-  </si>
-  <si>
-    <t>2004 Jul</t>
-  </si>
-  <si>
-    <t>2004 Aug</t>
-  </si>
-  <si>
-    <t>2004 Sep</t>
-  </si>
-  <si>
-    <t>2004 Oct</t>
-  </si>
-  <si>
-    <t>2004 Nov</t>
-  </si>
-  <si>
-    <t>2004 Dec</t>
-  </si>
-  <si>
-    <t>2005 Jan</t>
-  </si>
-  <si>
-    <t>2005 Feb</t>
-  </si>
-  <si>
-    <t>2005 Mar</t>
-  </si>
-  <si>
-    <t>2005 Apr</t>
-  </si>
-  <si>
-    <t>2005 May</t>
-  </si>
-  <si>
-    <t>2005 Jun</t>
-  </si>
-  <si>
-    <t>2005 Jul</t>
-  </si>
-  <si>
-    <t>2005 Aug</t>
-  </si>
-  <si>
-    <t>2005 Sep</t>
-  </si>
-  <si>
-    <t>2005 Oct</t>
-  </si>
-  <si>
-    <t>2005 Nov</t>
-  </si>
-  <si>
-    <t>2005 Dec</t>
-  </si>
-  <si>
-    <t>2006 Jan</t>
-  </si>
-  <si>
-    <t>2006 Feb</t>
-  </si>
-  <si>
-    <t>2006 Mar</t>
-  </si>
-  <si>
-    <t>2006 Apr</t>
-  </si>
-  <si>
-    <t>2006 May</t>
-  </si>
-  <si>
-    <t>2006 Jun</t>
-  </si>
-  <si>
-    <t>2006 Jul</t>
-  </si>
-  <si>
-    <t>2006 Aug</t>
-  </si>
-  <si>
-    <t>2006 Sep</t>
-  </si>
-  <si>
-    <t>2006 Oct</t>
-  </si>
-  <si>
-    <t>2006 Nov</t>
-  </si>
-  <si>
-    <t>2006 Dec</t>
-  </si>
-  <si>
-    <t>2007 Jan</t>
-  </si>
-  <si>
-    <t>2007 Feb</t>
-  </si>
-  <si>
-    <t>2007 Mar</t>
-  </si>
-  <si>
-    <t>2007 Apr</t>
-  </si>
-  <si>
-    <t>2007 May</t>
-  </si>
-  <si>
-    <t>2007 Jun</t>
-  </si>
-  <si>
-    <t>2007 Jul</t>
-  </si>
-  <si>
-    <t>2007 Aug</t>
-  </si>
-  <si>
-    <t>2007 Sep</t>
-  </si>
-  <si>
-    <t>2007 Oct</t>
-  </si>
-  <si>
-    <t>2007 Nov</t>
-  </si>
-  <si>
-    <t>2007 Dec</t>
-  </si>
-  <si>
-    <t>2008 Jan</t>
-  </si>
-  <si>
-    <t>2008 Feb</t>
-  </si>
-  <si>
-    <t>2008 Mar</t>
-  </si>
-  <si>
-    <t>2008 Apr</t>
-  </si>
-  <si>
-    <t>2008 May</t>
-  </si>
-  <si>
-    <t>2008 Jun</t>
-  </si>
-  <si>
-    <t>2008 Jul</t>
-  </si>
-  <si>
-    <t>2008 Aug</t>
-  </si>
-  <si>
-    <t>2008 Sep</t>
-  </si>
-  <si>
-    <t>2008 Oct</t>
-  </si>
-  <si>
-    <t>2008 Nov</t>
-  </si>
-  <si>
-    <t>2008 Dec</t>
-  </si>
-  <si>
-    <t>2009 Jan</t>
-  </si>
-  <si>
-    <t>2009 Feb</t>
-  </si>
-  <si>
-    <t>2009 Mar</t>
-  </si>
-  <si>
-    <t>2009 Apr</t>
-  </si>
-  <si>
-    <t>2009 May</t>
-  </si>
-  <si>
-    <t>2009 Jun</t>
-  </si>
-  <si>
-    <t>2009 Jul</t>
-  </si>
-  <si>
-    <t>2009 Aug</t>
-  </si>
-  <si>
-    <t>2009 Sep</t>
-  </si>
-  <si>
-    <t>2009 Oct</t>
-  </si>
-  <si>
-    <t>2009 Nov</t>
-  </si>
-  <si>
-    <t>2009 Dec</t>
-  </si>
-  <si>
-    <t>2010 Jan</t>
-  </si>
-  <si>
-    <t>2010 Feb</t>
-  </si>
-  <si>
-    <t>2010 Mar</t>
-  </si>
-  <si>
-    <t>2010 Apr</t>
-  </si>
-  <si>
-    <t>2010 May</t>
-  </si>
-  <si>
-    <t>2010 Jun</t>
-  </si>
-  <si>
-    <t>2010 Jul</t>
-  </si>
-  <si>
-    <t>2010 Aug</t>
-  </si>
-  <si>
-    <t>2010 Sep</t>
-  </si>
-  <si>
-    <t>2010 Oct</t>
-  </si>
-  <si>
-    <t>2010 Nov</t>
-  </si>
-  <si>
-    <t>2010 Dec</t>
-  </si>
-  <si>
-    <t>2011 Jan</t>
-  </si>
-  <si>
-    <t>2011 Feb</t>
-  </si>
-  <si>
-    <t>2011 Mar</t>
-  </si>
-  <si>
-    <t>2011 Apr</t>
-  </si>
-  <si>
-    <t>2011 May</t>
-  </si>
-  <si>
-    <t>2011 Jun</t>
-  </si>
-  <si>
-    <t>2011 Jul</t>
-  </si>
-  <si>
-    <t>2011 Aug</t>
-  </si>
-  <si>
-    <t>2011 Sep</t>
-  </si>
-  <si>
-    <t>2011 Oct</t>
-  </si>
-  <si>
-    <t>2011 Nov</t>
-  </si>
-  <si>
-    <t>2011 Dec</t>
-  </si>
-  <si>
-    <t>2012 Jan</t>
-  </si>
-  <si>
-    <t>2012 Feb</t>
-  </si>
-  <si>
-    <t>2012 Mar</t>
-  </si>
-  <si>
-    <t>2012 Apr</t>
-  </si>
-  <si>
-    <t>2012 May</t>
-  </si>
-  <si>
-    <t>2012 Jun</t>
-  </si>
-  <si>
-    <t>2012 Jul</t>
-  </si>
-  <si>
-    <t>2012 Aug</t>
-  </si>
-  <si>
-    <t>2012 Sep</t>
-  </si>
-  <si>
-    <t>2012 Oct</t>
-  </si>
-  <si>
-    <t>2012 Nov</t>
-  </si>
-  <si>
-    <t>2012 Dec</t>
-  </si>
-  <si>
-    <t>2013 Jan</t>
-  </si>
-  <si>
-    <t>2013 Feb</t>
-  </si>
-  <si>
-    <t>2013 Mar</t>
-  </si>
-  <si>
-    <t>2013 Apr</t>
-  </si>
-  <si>
-    <t>2013 May</t>
-  </si>
-  <si>
-    <t>2013 Jun</t>
-  </si>
-  <si>
-    <t>2013 Jul</t>
-  </si>
-  <si>
-    <t>2013 Aug</t>
-  </si>
-  <si>
-    <t>2013 Sep</t>
-  </si>
-  <si>
-    <t>2013 Oct</t>
-  </si>
-  <si>
-    <t>2013 Nov</t>
-  </si>
-  <si>
-    <t>2013 Dec</t>
-  </si>
-  <si>
-    <t>2014 Jan</t>
-  </si>
-  <si>
-    <t>2014 Feb</t>
-  </si>
-  <si>
-    <t>2014 Mar</t>
-  </si>
-  <si>
-    <t>2014 Apr</t>
-  </si>
-  <si>
-    <t>2014 May</t>
-  </si>
-  <si>
-    <t>2014 Jun</t>
-  </si>
-  <si>
-    <t>2014 Jul</t>
-  </si>
-  <si>
-    <t>2014 Aug</t>
-  </si>
-  <si>
-    <t>2014 Sep</t>
-  </si>
-  <si>
-    <t>2014 Oct</t>
-  </si>
-  <si>
-    <t>2014 Nov</t>
-  </si>
-  <si>
-    <t>2014 Dec</t>
-  </si>
-  <si>
-    <t>2015 Jan</t>
-  </si>
-  <si>
-    <t>2015 Feb</t>
-  </si>
-  <si>
-    <t>2015 Mar</t>
-  </si>
-  <si>
-    <t>2015 Apr</t>
-  </si>
-  <si>
-    <t>2015 May</t>
-  </si>
-  <si>
-    <t>2015 Jun</t>
-  </si>
-  <si>
-    <t>2015 Jul</t>
-  </si>
-  <si>
-    <t>2015 Aug</t>
-  </si>
-  <si>
-    <t>2015 Sep</t>
-  </si>
-  <si>
-    <t>2015 Oct</t>
-  </si>
-  <si>
-    <t>2015 Nov</t>
-  </si>
-  <si>
-    <t>2015 Dec</t>
-  </si>
-  <si>
-    <t>2016 Jan</t>
-  </si>
-  <si>
-    <t>2016 Feb</t>
-  </si>
-  <si>
-    <t>2016 Mar</t>
-  </si>
-  <si>
-    <t>2016 Apr</t>
-  </si>
-  <si>
-    <t>2016 May</t>
-  </si>
-  <si>
-    <t>2016 Jun</t>
-  </si>
-  <si>
-    <t>2016 Jul</t>
-  </si>
-  <si>
-    <t>2016 Aug</t>
-  </si>
-  <si>
-    <t>2016 Sep</t>
-  </si>
-  <si>
-    <t>2016 Oct</t>
-  </si>
-  <si>
-    <t>2016 Nov</t>
-  </si>
-  <si>
-    <t>2016 Dec</t>
-  </si>
-  <si>
-    <t>2017 Jan</t>
-  </si>
-  <si>
-    <t>2017 Feb</t>
-  </si>
-  <si>
-    <t>2017 Mar</t>
-  </si>
-  <si>
-    <t>2017 Apr</t>
-  </si>
-  <si>
-    <t>2017 May</t>
-  </si>
-  <si>
-    <t>2017 Jun</t>
-  </si>
-  <si>
-    <t>2017 Jul</t>
-  </si>
-  <si>
-    <t>2017 Aug</t>
-  </si>
-  <si>
-    <t>2017 Sep</t>
-  </si>
-  <si>
-    <t>2017 Oct</t>
-  </si>
-  <si>
-    <t>2017 Nov</t>
-  </si>
-  <si>
-    <t>2017 Dec</t>
-  </si>
-  <si>
-    <t>2018 Jan</t>
-  </si>
-  <si>
-    <t>2018 Feb</t>
-  </si>
-  <si>
-    <t>2018 Mar</t>
-  </si>
-  <si>
-    <t>2018 Apr</t>
-  </si>
-  <si>
-    <t>2018 May</t>
-  </si>
-  <si>
-    <t>2018 Jun</t>
-  </si>
-  <si>
-    <t>2018 Jul</t>
-  </si>
-  <si>
-    <t>2018 Aug</t>
-  </si>
-  <si>
-    <t>2018 Sep</t>
-  </si>
-  <si>
-    <t>2018 Oct</t>
-  </si>
-  <si>
-    <t>2018 Nov</t>
-  </si>
-  <si>
-    <t>2018 Dec</t>
-  </si>
-  <si>
-    <t>2019 Jan</t>
-  </si>
-  <si>
-    <t>2019 Feb</t>
-  </si>
-  <si>
-    <t>2019 Mar</t>
-  </si>
-  <si>
-    <t>2019 Apr</t>
-  </si>
-  <si>
-    <t>2019 May</t>
-  </si>
-  <si>
-    <t>2019 Jun</t>
-  </si>
-  <si>
-    <t>2019 Jul</t>
-  </si>
-  <si>
-    <t>2019 Aug</t>
-  </si>
-  <si>
-    <t>2019 Sep</t>
-  </si>
-  <si>
-    <t>2019 Oct</t>
-  </si>
-  <si>
-    <t>2019 Nov</t>
-  </si>
-  <si>
-    <t>2019 Dec</t>
-  </si>
-  <si>
-    <t>2020 Jan</t>
-  </si>
-  <si>
-    <t>2020 Feb</t>
-  </si>
-  <si>
-    <t>2020 Mar</t>
-  </si>
-  <si>
-    <t>2020 Apr</t>
-  </si>
-  <si>
-    <t>2020 May</t>
-  </si>
-  <si>
-    <t>2020 Jun</t>
-  </si>
-  <si>
-    <t>2020 Jul</t>
-  </si>
-  <si>
-    <t>2020 Aug</t>
-  </si>
-  <si>
-    <t>2020 Sep</t>
-  </si>
-  <si>
-    <t>2020 Oct</t>
-  </si>
-  <si>
-    <t>2020 Nov</t>
-  </si>
-  <si>
-    <t>2020 Dec</t>
-  </si>
-  <si>
-    <t>2021 Jan</t>
-  </si>
-  <si>
-    <t>2021 Feb</t>
-  </si>
-  <si>
-    <t>2021 Mar</t>
-  </si>
-  <si>
-    <t>2021 Apr</t>
-  </si>
-  <si>
-    <t>2021 May</t>
-  </si>
-  <si>
-    <t>2021 Jun</t>
-  </si>
-  <si>
-    <t>2021 Jul</t>
-  </si>
-  <si>
-    <t>2021 Aug</t>
-  </si>
-  <si>
-    <t>2021 Sep</t>
-  </si>
-  <si>
-    <t>2021 Oct</t>
-  </si>
-  <si>
-    <t>2021 Nov</t>
-  </si>
-  <si>
-    <t>Total Electronic Products</t>
-  </si>
-  <si>
-    <t>Integrated Circuits</t>
-  </si>
-  <si>
-    <t>Parts Of Personal Computer</t>
-  </si>
-  <si>
-    <t>Disk Drives</t>
-  </si>
-  <si>
-    <t>Telecommunications Equipment  *</t>
-  </si>
-  <si>
-    <t>Consumer Electronics  *</t>
-  </si>
-  <si>
-    <t>Personal Computers</t>
-  </si>
-  <si>
-    <t>Parts Of Integrated Circuits</t>
-  </si>
-  <si>
-    <t>Diodes And Transistors</t>
-  </si>
-  <si>
-    <t>Non-electronic Products</t>
-  </si>
-  <si>
-    <t>Electrical Circuit Apparatus</t>
-  </si>
-  <si>
-    <t>Electrical Machinery &amp; Apparatus Nes</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1227,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JP13"/>
+  <dimension ref="A1:JS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,839 +366,1408 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:276">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Jan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Feb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Mar</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Apr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1999 May</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Jun</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Jul</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Aug</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Sep</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Oct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Nov</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1999 Dec</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Jan</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Feb</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Mar</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Apr</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2000 May</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Jun</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Jul</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Aug</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Sep</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Oct</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Nov</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2000 Dec</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Jan</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Feb</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Mar</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Apr</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2001 May</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Jun</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Jul</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Aug</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Sep</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Oct</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Nov</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001 Dec</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Jan</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Feb</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Mar</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Apr</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2002 May</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Jun</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Jul</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Aug</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Sep</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Oct</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Nov</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002 Dec</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Jan</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Feb</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Mar</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Apr</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2003 May</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Jun</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Jul</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Aug</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Sep</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Oct</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Nov</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2003 Dec</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Jan</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Feb</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Mar</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Apr</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2004 May</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Jun</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Jul</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Aug</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Sep</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Oct</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Nov</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2004 Dec</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Jan</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Feb</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Mar</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Apr</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005 May</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Jun</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Jul</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Aug</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Sep</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Oct</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Nov</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2005 Dec</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Jan</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Feb</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Mar</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Apr</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2006 May</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Jun</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Jul</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Aug</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Sep</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Oct</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Nov</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2006 Dec</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Jan</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Feb</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Mar</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Apr</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2007 May</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Jun</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Jul</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Aug</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Sep</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Oct</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Nov</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007 Dec</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Jan</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Feb</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Mar</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Apr</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008 May</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Jun</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Jul</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Aug</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Sep</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Oct</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Nov</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008 Dec</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Jan</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Feb</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Mar</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Apr</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2009 May</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Jun</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Jul</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Aug</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Sep</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Oct</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Nov</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2009 Dec</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Jan</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Feb</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Mar</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Apr</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2010 May</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Jun</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Jul</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Aug</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Sep</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Oct</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Nov</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2010 Dec</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Jan</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Feb</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Mar</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Apr</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2011 May</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Jun</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Jul</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Aug</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Sep</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Oct</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Nov</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2011 Dec</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Jan</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Feb</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Mar</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Apr</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2012 May</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Jun</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Jul</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Aug</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Sep</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Oct</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Nov</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2012 Dec</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Jan</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Feb</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Mar</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Apr</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2013 May</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Jun</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Jul</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Aug</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Sep</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Oct</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Nov</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2013 Dec</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Jan</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Feb</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Mar</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Apr</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2014 May</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Jun</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Jul</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Aug</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Sep</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Oct</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Nov</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2014 Dec</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Jan</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Feb</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Mar</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Apr</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2015 May</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Jun</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Jul</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Aug</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Sep</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Oct</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Nov</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2015 Dec</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Jan</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Feb</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Mar</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Apr</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2016 May</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Jun</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Jul</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Aug</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Sep</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Oct</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Nov</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2016 Dec</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Jan</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Feb</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Mar</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Apr</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2017 May</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Jun</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Jul</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Aug</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Sep</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Oct</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Nov</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2017 Dec</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Jan</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Feb</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Mar</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Apr</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018 May</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Jun</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Jul</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Aug</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Sep</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Oct</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Nov</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2018 Dec</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Jan</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Feb</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Mar</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Apr</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2019 May</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Jun</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Jul</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Aug</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Sep</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Oct</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Nov</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2019 Dec</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Jan</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Feb</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Mar</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Apr</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2020 May</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Jun</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Jul</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Aug</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Sep</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Oct</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Nov</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2020 Dec</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jan</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Feb</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Mar</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Apr</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021 May</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jun</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jul</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Aug</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Sep</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Oct</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Nov</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Dec</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2022 Jan</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2022 Feb</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:276">
-      <c r="A2" s="1" t="s">
-        <v>276</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total Electronic Products</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>5349159.5</v>
@@ -2865,39 +2565,50 @@
         <v>14259559.8</v>
       </c>
       <c r="JG2" t="n">
-        <v>13081001.4</v>
+        <v>13081455.9</v>
       </c>
       <c r="JH2" t="n">
         <v>15589329.9</v>
       </c>
       <c r="JI2" t="n">
-        <v>14812154.9</v>
+        <v>14812186.6</v>
       </c>
       <c r="JJ2" t="n">
         <v>14179960.3</v>
       </c>
       <c r="JK2" t="n">
-        <v>14545843.3</v>
+        <v>14545592.2</v>
       </c>
       <c r="JL2" t="n">
-        <v>15643896.1</v>
+        <v>15644035.2</v>
       </c>
       <c r="JM2" t="n">
         <v>15995182.2</v>
       </c>
       <c r="JN2" t="n">
-        <v>16143202.5</v>
+        <v>16144411.2</v>
       </c>
       <c r="JO2" t="n">
-        <v>16435085.8</v>
+        <v>16435390.6</v>
       </c>
       <c r="JP2" t="n">
-        <v>16625749.2</v>
+        <v>16625257.6</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>18581265.3</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>17071237.8</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>15398531.9</v>
       </c>
     </row>
-    <row r="3" spans="1:276">
-      <c r="A3" s="1" t="s">
-        <v>277</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Circuits</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>2000175.4</v>
@@ -3707,10 +3418,10 @@
         <v>9337588.9</v>
       </c>
       <c r="JK3" t="n">
-        <v>9747166.4</v>
+        <v>9746896.800000001</v>
       </c>
       <c r="JL3" t="n">
-        <v>10577199.2</v>
+        <v>10577199.8</v>
       </c>
       <c r="JM3" t="n">
         <v>10857853.6</v>
@@ -3722,12 +3433,23 @@
         <v>10742460.6</v>
       </c>
       <c r="JP3" t="n">
-        <v>10994637.2</v>
+        <v>10994602.1</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>12308851.7</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>12112949</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>11205699.1</v>
       </c>
     </row>
-    <row r="4" spans="1:276">
-      <c r="A4" s="1" t="s">
-        <v>278</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Parts Of Personal Computer</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1117409.2</v>
@@ -4537,7 +4259,7 @@
         <v>1017086.5</v>
       </c>
       <c r="JK4" t="n">
-        <v>939137.9</v>
+        <v>939156.3</v>
       </c>
       <c r="JL4" t="n">
         <v>1070781.9</v>
@@ -4554,10 +4276,21 @@
       <c r="JP4" t="n">
         <v>963188.4</v>
       </c>
+      <c r="JQ4" t="n">
+        <v>1007702.8</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>740101.8</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>633096.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:276">
-      <c r="A5" s="1" t="s">
-        <v>279</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Disk Drives</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>401352.8</v>
@@ -5384,10 +5117,21 @@
       <c r="JP5" t="n">
         <v>138324.7</v>
       </c>
+      <c r="JQ5" t="n">
+        <v>160721.5</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>171544.7</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>108549.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:276">
-      <c r="A6" s="1" t="s">
-        <v>280</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Telecommunications Equipment  *</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>195077</v>
@@ -6185,7 +5929,7 @@
         <v>1559807.9</v>
       </c>
       <c r="JG6" t="n">
-        <v>1090970.5</v>
+        <v>1090976.9</v>
       </c>
       <c r="JH6" t="n">
         <v>1544900.4</v>
@@ -6200,13 +5944,13 @@
         <v>1082805.4</v>
       </c>
       <c r="JL6" t="n">
-        <v>1032355.9</v>
+        <v>1032367.6</v>
       </c>
       <c r="JM6" t="n">
-        <v>999586.1</v>
+        <v>999522.7</v>
       </c>
       <c r="JN6" t="n">
-        <v>1326734.6</v>
+        <v>1327943.3</v>
       </c>
       <c r="JO6" t="n">
         <v>1628023.2</v>
@@ -6214,10 +5958,21 @@
       <c r="JP6" t="n">
         <v>1537213.6</v>
       </c>
+      <c r="JQ6" t="n">
+        <v>1587882.9</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>1151271.5</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>1007754.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:276">
-      <c r="A7" s="1" t="s">
-        <v>281</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Consumer Electronics  *</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>392950.1</v>
@@ -7033,7 +6788,7 @@
         <v>303308.2</v>
       </c>
       <c r="JM7" t="n">
-        <v>330862.4</v>
+        <v>330925.8</v>
       </c>
       <c r="JN7" t="n">
         <v>342185.2</v>
@@ -7042,12 +6797,23 @@
         <v>379482.1</v>
       </c>
       <c r="JP7" t="n">
-        <v>415838.5</v>
+        <v>415410.2</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>431820.5</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>352018</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>248232.1</v>
       </c>
     </row>
-    <row r="8" spans="1:276">
-      <c r="A8" s="1" t="s">
-        <v>282</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Personal Computers</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>81418.39999999999</v>
@@ -7869,15 +7635,26 @@
         <v>828111.8</v>
       </c>
       <c r="JO8" t="n">
-        <v>761210.6</v>
+        <v>761515.4</v>
       </c>
       <c r="JP8" t="n">
-        <v>746826.1</v>
+        <v>746813.5</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>947333.6</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>711205.1</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>595239.9</v>
       </c>
     </row>
-    <row r="9" spans="1:276">
-      <c r="A9" s="1" t="s">
-        <v>283</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Parts Of Integrated Circuits</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>274055.6</v>
@@ -8681,7 +8458,7 @@
         <v>310048.9</v>
       </c>
       <c r="JI9" t="n">
-        <v>370434.5</v>
+        <v>370466.2</v>
       </c>
       <c r="JJ9" t="n">
         <v>282806.3</v>
@@ -8704,10 +8481,21 @@
       <c r="JP9" t="n">
         <v>315243.3</v>
       </c>
+      <c r="JQ9" t="n">
+        <v>374667.5</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>369410.1</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>316036.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:276">
-      <c r="A10" s="1" t="s">
-        <v>284</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Diodes And Transistors</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>258721</v>
@@ -9505,7 +9293,7 @@
         <v>628470.6</v>
       </c>
       <c r="JG10" t="n">
-        <v>539901.7</v>
+        <v>540349.9</v>
       </c>
       <c r="JH10" t="n">
         <v>698507.9</v>
@@ -9520,7 +9308,7 @@
         <v>656977.8</v>
       </c>
       <c r="JL10" t="n">
-        <v>649471.7</v>
+        <v>649598.6</v>
       </c>
       <c r="JM10" t="n">
         <v>636029.6</v>
@@ -9534,10 +9322,21 @@
       <c r="JP10" t="n">
         <v>743981.6</v>
       </c>
+      <c r="JQ10" t="n">
+        <v>802652.4</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>691958.8</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>623873.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:276">
-      <c r="A11" s="1" t="s">
-        <v>285</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Non-electronic Products</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>2680838.7</v>
@@ -10332,42 +10131,53 @@
         <v>6884615.7</v>
       </c>
       <c r="JF11" t="n">
-        <v>6702908.1</v>
+        <v>6702678.2</v>
       </c>
       <c r="JG11" t="n">
-        <v>6233002.6</v>
+        <v>6232548.1</v>
       </c>
       <c r="JH11" t="n">
-        <v>7916961.5</v>
+        <v>7904345.5</v>
       </c>
       <c r="JI11" t="n">
         <v>7624759.1</v>
       </c>
       <c r="JJ11" t="n">
-        <v>7373817.4</v>
+        <v>7342304</v>
       </c>
       <c r="JK11" t="n">
-        <v>7798763.5</v>
+        <v>7798762.5</v>
       </c>
       <c r="JL11" t="n">
-        <v>8093927.8</v>
+        <v>8052442.7</v>
       </c>
       <c r="JM11" t="n">
-        <v>7678734.6</v>
+        <v>7591124.6</v>
       </c>
       <c r="JN11" t="n">
-        <v>8080279.8</v>
+        <v>8020977.7</v>
       </c>
       <c r="JO11" t="n">
-        <v>8066902.7</v>
+        <v>8066881.3</v>
       </c>
       <c r="JP11" t="n">
-        <v>8638665.4</v>
+        <v>8576669.1</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>9857243.5</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>8660956.300000001</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>7673754.8</v>
       </c>
     </row>
-    <row r="12" spans="1:276">
-      <c r="A12" s="1" t="s">
-        <v>286</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Electrical Circuit Apparatus</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>198681.3</v>
@@ -11189,15 +10999,26 @@
         <v>617181.8</v>
       </c>
       <c r="JO12" t="n">
-        <v>601784</v>
+        <v>601765.8</v>
       </c>
       <c r="JP12" t="n">
-        <v>599272.7</v>
+        <v>599265.1</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>616540.5</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>632312.9</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>513352.5</v>
       </c>
     </row>
-    <row r="13" spans="1:276">
-      <c r="A13" s="1" t="s">
-        <v>287</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Electrical Machinery &amp; Apparatus Nes</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>150672.4</v>
@@ -11995,7 +11816,7 @@
         <v>421620.9</v>
       </c>
       <c r="JG13" t="n">
-        <v>372167.6</v>
+        <v>371719.5</v>
       </c>
       <c r="JH13" t="n">
         <v>492100.3</v>
@@ -12010,7 +11831,7 @@
         <v>488450.3</v>
       </c>
       <c r="JL13" t="n">
-        <v>499211.2</v>
+        <v>499084.4</v>
       </c>
       <c r="JM13" t="n">
         <v>484729.9</v>
@@ -12023,6 +11844,15 @@
       </c>
       <c r="JP13" t="n">
         <v>517678.3</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>644945.4</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>567338.3</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>524423.3</v>
       </c>
     </row>
   </sheetData>
